--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41772158-F32C-4F38-A485-EFC82B01A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0AE87F-A822-40CA-94D5-9602CDD5FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5AB8442-BDE4-43D7-90A8-EB7160E783F9}"/>
+    <workbookView xWindow="5760" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{B5AB8442-BDE4-43D7-90A8-EB7160E783F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,13 +129,13 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -472,16 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F766D-BC2E-4D1E-81F8-47FC6D259DA9}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="13.42578125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="13.41796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,403 +489,395 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B2" s="5">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B3" s="5">
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B4" s="5">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="5">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B6" s="5">
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B7" s="5">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B8" s="5">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B9" s="5">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B10" s="5">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="4">
+        <v>45382</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="4">
+        <v>45351</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="4">
+        <v>45291</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="4">
+        <v>45260</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="4">
+        <v>45230</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B18" s="5">
         <v>2.23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>45412</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>45382</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>45351</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B14" s="5">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>45291</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>45260</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>45199</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="4">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B19" s="5">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="4">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B20" s="5">
-        <v>1.7399999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.77999999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="4">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B21" s="5">
-        <v>0.77999999999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="4">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B22" s="5">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="4">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B23" s="5">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="4">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B24" s="5">
-        <v>0.22999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>44985</v>
-      </c>
-      <c r="B25" s="5">
         <v>3.52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+    <row r="25" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="6">
         <v>44957</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B25" s="7">
         <v>5.43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="4">
+        <v>44926</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3.7199999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="4">
-        <v>44926</v>
+        <v>44895</v>
       </c>
       <c r="B27" s="5">
-        <v>3.7199999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="4">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B28" s="5">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="B29" s="5">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B30" s="5">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="4">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B31" s="5">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="B32" s="5">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="4">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="B33" s="5">
-        <v>8.2000000000000011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="4">
-        <v>44712</v>
+        <v>44681</v>
       </c>
       <c r="B34" s="5">
-        <v>8.07</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="4">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B35" s="5">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="4">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B36" s="5">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="4">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B37" s="5">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="4">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="B38" s="5">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14.729999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="4">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B39" s="5">
-        <v>14.729999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="4">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B40" s="5">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B41" s="5">
-        <v>13.52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="4">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B42" s="5">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12.559999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="4">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="B43" s="5">
-        <v>12.559999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.700000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="4">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="B44" s="5">
-        <v>11.700000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="4">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B45" s="5">
-        <v>16.13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="4">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B46" s="5">
-        <v>23.35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46.989999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="4">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B47" s="5">
-        <v>46.989999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="4">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B48" s="5">
-        <v>29.13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="4">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B49" s="5">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>44227</v>
-      </c>
-      <c r="B50" s="5">
         <v>12.53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+    <row r="50" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="6">
         <v>44196</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B50" s="7">
         <v>6.5299999999999994</v>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -1,79 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0AE87F-A822-40CA-94D5-9602CDD5FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{B5AB8442-BDE4-43D7-90A8-EB7160E783F9}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3696" windowWidth="17280" windowHeight="9984" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF1A1A1A"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,40 +86,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,414 +498,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F766D-BC2E-4D1E-81F8-47FC6D259DA9}">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.41796875" style="3" customWidth="1"/>
+    <col width="13.41796875" customWidth="1" style="3" min="1" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="4">
+    <row r="1" ht="14.7" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A3" s="4" t="n">
         <v>45657</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5" t="n">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="4">
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A4" s="4" t="n">
         <v>45626</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5" t="n">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="4">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A5" s="4" t="n">
         <v>45596</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5" t="n">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="4">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A6" s="4" t="n">
         <v>45565</v>
       </c>
-      <c r="B5" s="5">
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="4">
+      <c r="B6" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A7" s="4" t="n">
         <v>45535</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5" t="n">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="4">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A8" s="4" t="n">
         <v>45504</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5" t="n">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="4">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A9" s="4" t="n">
         <v>45473</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5" t="n">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="4">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A10" s="4" t="n">
         <v>45443</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5" t="n">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="4">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A11" s="4" t="n">
         <v>45412</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5" t="n">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="4">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A12" s="4" t="n">
         <v>45382</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5" t="n">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="4">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A13" s="4" t="n">
         <v>45351</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5" t="n">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="4">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A14" s="4" t="n">
         <v>45322</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5" t="n">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="4">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A15" s="4" t="n">
         <v>45291</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5" t="n">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="4">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A16" s="4" t="n">
         <v>45260</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5" t="n">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="4">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A17" s="4" t="n">
         <v>45230</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5" t="n">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="4">
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A18" s="4" t="n">
         <v>45199</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5" t="n">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="4">
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A19" s="4" t="n">
         <v>45169</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5" t="n">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="4">
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A20" s="4" t="n">
         <v>45138</v>
       </c>
-      <c r="B19" s="5">
-        <v>1.7399999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="4">
+      <c r="B20" s="5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A21" s="4" t="n">
         <v>45107</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.77999999999999992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="4">
+      <c r="B21" s="5" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A22" s="4" t="n">
         <v>45077</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5" t="n">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="4">
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A23" s="4" t="n">
         <v>45046</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="4">
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A24" s="4" t="n">
         <v>45016</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.22999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="4">
+      <c r="B24" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A25" s="4" t="n">
         <v>44985</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5" t="n">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="6">
+      <c r="C25">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A26" s="6" t="n">
         <v>44957</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="7" t="n">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="4">
+      <c r="C26">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A27" s="4" t="n">
         <v>44926</v>
       </c>
-      <c r="B26" s="5">
-        <v>3.7199999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="4">
+      <c r="B27" s="5" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C27">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A28" s="4" t="n">
         <v>44895</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5" t="n">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="4">
+      <c r="C28">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A29" s="4" t="n">
         <v>44865</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5" t="n">
         <v>6.94</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="4">
+      <c r="C29">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A30" s="4" t="n">
         <v>44834</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5" t="n">
         <v>7.62</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="4">
+      <c r="C30">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A31" s="4" t="n">
         <v>44804</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="5" t="n">
         <v>8.84</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="4">
+      <c r="C31">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A32" s="4" t="n">
         <v>44773</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B32" s="5" t="n">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="4">
+      <c r="C32">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A33" s="4" t="n">
         <v>44742</v>
       </c>
-      <c r="B32" s="5">
-        <v>8.2000000000000011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="4">
+      <c r="B33" s="5" t="n">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="C33">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A34" s="4" t="n">
         <v>44712</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5" t="n">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="4">
+      <c r="C34">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A35" s="4" t="n">
         <v>44681</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="5" t="n">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="4">
+      <c r="C35">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A36" s="4" t="n">
         <v>44651</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="5" t="n">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="4">
+      <c r="C36">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A37" s="4" t="n">
         <v>44620</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5" t="n">
         <v>14.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="4">
+      <c r="C37">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A38" s="4" t="n">
         <v>44592</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5" t="n">
         <v>11.52</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="4">
+      <c r="C38">
+        <f>(B38/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A39" s="4" t="n">
         <v>44561</v>
       </c>
-      <c r="B38" s="5">
-        <v>14.729999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="4">
+      <c r="B39" s="5" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="C39">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A40" s="4" t="n">
         <v>44530</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B40" s="5" t="n">
         <v>15.72</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="4">
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A41" s="4" t="n">
         <v>44500</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="5" t="n">
         <v>13.52</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="4">
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A42" s="4" t="n">
         <v>44469</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B42" s="5" t="n">
         <v>11.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="4">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A43" s="4" t="n">
         <v>44439</v>
       </c>
-      <c r="B42" s="5">
-        <v>12.559999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="4">
+      <c r="B43" s="5" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A44" s="4" t="n">
         <v>44408</v>
       </c>
-      <c r="B43" s="5">
-        <v>11.700000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="4">
+      <c r="B44" s="5" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A45" s="4" t="n">
         <v>44377</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B45" s="5" t="n">
         <v>16.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="4">
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A46" s="4" t="n">
         <v>44347</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B46" s="5" t="n">
         <v>23.35</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="4">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A47" s="4" t="n">
         <v>44316</v>
       </c>
-      <c r="B46" s="5">
-        <v>46.989999999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="4">
+      <c r="B47" s="5" t="n">
+        <v>46.98999999999999</v>
+      </c>
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A48" s="4" t="n">
         <v>44286</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B48" s="5" t="n">
         <v>29.13</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="4">
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A49" s="4" t="n">
         <v>44255</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B49" s="5" t="n">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="4">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A50" s="4" t="n">
         <v>44227</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B50" s="5" t="n">
         <v>12.53</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="6">
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
         <v>44196</v>
       </c>
-      <c r="B50" s="7">
-        <v>6.5299999999999994</v>
+      <c r="B51" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,23 +529,25 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A3" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -554,10 +556,10 @@
     </row>
     <row r="4" ht="14.7" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="5" ht="14.7" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -578,10 +580,10 @@
     </row>
     <row r="6" ht="14.7" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -590,10 +592,10 @@
     </row>
     <row r="7" ht="14.7" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -602,10 +604,10 @@
     </row>
     <row r="8" ht="14.7" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -614,10 +616,10 @@
     </row>
     <row r="9" ht="14.7" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -626,10 +628,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -686,10 +688,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -698,10 +700,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -722,10 +724,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -734,10 +736,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -758,10 +760,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -770,10 +772,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -794,10 +796,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -806,10 +808,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -817,11 +819,11 @@
       </c>
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A26" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B26" s="7" t="n">
-        <v>5.43</v>
+      <c r="A26" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -829,11 +831,11 @@
       </c>
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A27" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>3.72</v>
+      <c r="A27" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
       <c r="A28" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
       <c r="A30" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
       <c r="A32" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -902,10 +904,10 @@
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -914,10 +916,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1117,14 +1119,26 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B51" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A51" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B52" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,11 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -543,23 +543,25 @@
     <row r="3" ht="14.7" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A4" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -568,10 +570,10 @@
     </row>
     <row r="5" ht="14.7" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -580,10 +582,10 @@
     </row>
     <row r="6" ht="14.7" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -592,10 +594,10 @@
     </row>
     <row r="7" ht="14.7" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -604,10 +606,10 @@
     </row>
     <row r="8" ht="14.7" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -616,10 +618,10 @@
     </row>
     <row r="9" ht="14.7" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -628,10 +630,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -640,10 +642,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -652,10 +654,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -664,10 +666,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -676,10 +678,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -688,10 +690,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -700,10 +702,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -712,10 +714,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -724,10 +726,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -736,10 +738,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -748,10 +750,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -760,10 +762,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -772,10 +774,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -784,10 +786,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -796,10 +798,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -808,10 +810,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -820,10 +822,10 @@
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -831,11 +833,11 @@
       </c>
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A27" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B27" s="7" t="n">
-        <v>5.43</v>
+      <c r="A27" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -843,11 +845,11 @@
       </c>
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A28" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>3.72</v>
+      <c r="A28" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -856,10 +858,10 @@
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
       <c r="A30" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -880,10 +882,10 @@
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -892,10 +894,10 @@
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
       <c r="A32" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -904,10 +906,10 @@
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -916,10 +918,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -928,10 +930,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -988,10 +990,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1096,10 +1098,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1108,10 +1110,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1131,14 +1133,26 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B52" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A52" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B53" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,11 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.58</v>
+        <v>4.75</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -543,11 +543,11 @@
     <row r="3" ht="14.7" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -557,23 +557,25 @@
     <row r="4" ht="14.7" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -582,10 +584,10 @@
     </row>
     <row r="6" ht="14.7" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -594,10 +596,10 @@
     </row>
     <row r="7" ht="14.7" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -606,10 +608,10 @@
     </row>
     <row r="8" ht="14.7" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -618,10 +620,10 @@
     </row>
     <row r="9" ht="14.7" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -630,10 +632,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -642,10 +644,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -678,10 +680,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -702,10 +704,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -714,10 +716,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -726,10 +728,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -738,10 +740,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -750,10 +752,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -762,10 +764,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -845,11 +847,11 @@
       </c>
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A28" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B28" s="7" t="n">
-        <v>5.43</v>
+      <c r="A28" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -857,11 +859,11 @@
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A29" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>3.72</v>
+      <c r="A29" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
       <c r="A30" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
       <c r="A32" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1086,10 +1088,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1110,10 +1112,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1145,14 +1147,26 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B53" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A53" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B54" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,11 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -543,11 +543,11 @@
     <row r="3" ht="14.7" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.58</v>
+        <v>4.75</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -557,11 +557,11 @@
     <row r="4" ht="14.7" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -571,23 +571,25 @@
     <row r="5" ht="14.7" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A6" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -596,10 +598,10 @@
     </row>
     <row r="7" ht="14.7" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -608,10 +610,10 @@
     </row>
     <row r="8" ht="14.7" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -620,10 +622,10 @@
     </row>
     <row r="9" ht="14.7" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -632,10 +634,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -644,10 +646,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -656,10 +658,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -668,10 +670,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -680,10 +682,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -692,10 +694,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -704,10 +706,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -716,10 +718,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -728,10 +730,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -740,10 +742,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -752,10 +754,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -764,10 +766,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -776,10 +778,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -800,10 +802,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -836,10 +838,10 @@
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
       <c r="A28" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -859,11 +861,11 @@
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A29" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B29" s="7" t="n">
-        <v>5.43</v>
+      <c r="A29" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -871,11 +873,11 @@
       </c>
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A30" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>3.72</v>
+      <c r="A30" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
       <c r="A32" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -932,10 +934,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -944,10 +946,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -968,10 +970,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -980,10 +982,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -1004,10 +1006,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1052,10 +1054,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1064,10 +1066,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1112,10 +1114,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1124,10 +1126,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1136,10 +1138,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1148,10 +1150,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1159,14 +1161,26 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B54" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A54" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,11 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.98</v>
+        <v>3.51</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -543,11 +543,11 @@
     <row r="3" ht="14.7" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -557,11 +557,11 @@
     <row r="4" ht="14.7" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.58</v>
+        <v>4.75</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -571,11 +571,11 @@
     <row r="5" ht="14.7" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -585,23 +585,25 @@
     <row r="6" ht="14.7" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A7" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -610,10 +612,10 @@
     </row>
     <row r="8" ht="14.7" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -622,10 +624,10 @@
     </row>
     <row r="9" ht="14.7" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -634,10 +636,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -646,10 +648,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -658,10 +660,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -670,10 +672,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -682,10 +684,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -694,10 +696,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -706,10 +708,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -730,10 +732,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -742,10 +744,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -754,10 +756,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -766,10 +768,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -778,10 +780,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -790,10 +792,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -814,10 +816,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -850,10 +852,10 @@
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
       <c r="A28" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -873,11 +875,11 @@
       </c>
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A30" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v>5.43</v>
+      <c r="A30" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -885,11 +887,11 @@
       </c>
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A31" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>3.72</v>
+      <c r="A31" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
       <c r="A32" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -946,10 +948,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -958,10 +960,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -982,10 +984,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -994,10 +996,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1018,10 +1020,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1030,10 +1032,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1066,10 +1068,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1102,10 +1104,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1114,10 +1116,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1126,10 +1128,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1138,10 +1140,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1150,10 +1152,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1162,10 +1164,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1173,14 +1175,26 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B55" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A55" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B56" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,11 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -543,11 +543,11 @@
     <row r="3" ht="14.7" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.98</v>
+        <v>3.51</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -557,11 +557,11 @@
     <row r="4" ht="14.7" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -571,11 +571,11 @@
     <row r="5" ht="14.7" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.58</v>
+        <v>4.75</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -585,11 +585,11 @@
     <row r="6" ht="14.7" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -599,23 +599,25 @@
     <row r="7" ht="14.7" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A8" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -624,10 +626,10 @@
     </row>
     <row r="9" ht="14.7" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -636,10 +638,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -648,10 +650,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -660,10 +662,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -672,10 +674,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -684,10 +686,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -696,10 +698,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -708,10 +710,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -720,10 +722,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -732,10 +734,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -744,10 +746,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -756,10 +758,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -768,10 +770,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -780,10 +782,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -792,10 +794,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -804,10 +806,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -816,10 +818,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -828,10 +830,10 @@
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -840,10 +842,10 @@
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -852,10 +854,10 @@
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
       <c r="A28" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -864,10 +866,10 @@
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -876,10 +878,10 @@
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
       <c r="A30" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -887,11 +889,11 @@
       </c>
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A31" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B31" s="7" t="n">
-        <v>5.43</v>
+      <c r="A31" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -899,11 +901,11 @@
       </c>
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A32" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>3.72</v>
+      <c r="A32" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -912,10 +914,10 @@
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -924,10 +926,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -936,10 +938,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -948,10 +950,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -960,10 +962,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -972,10 +974,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -984,10 +986,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -996,10 +998,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -1008,10 +1010,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1020,10 +1022,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1032,10 +1034,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1044,10 +1046,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1068,10 +1070,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1080,10 +1082,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1092,10 +1094,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1104,10 +1106,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1116,10 +1118,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1128,10 +1130,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1140,10 +1142,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1152,10 +1154,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1164,10 +1166,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1176,10 +1178,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1187,14 +1189,26 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B56" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A56" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C57">
+        <f>(B57/B69-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/retail-growth.xlsx
+++ b/data/retail-growth.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,11 @@
     <row r="2" ht="14.7" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.66</v>
+        <v>4.77</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -543,11 +543,11 @@
     <row r="3" ht="14.7" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -557,11 +557,11 @@
     <row r="4" ht="14.7" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.98</v>
+        <v>3.51</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -571,11 +571,11 @@
     <row r="5" ht="14.7" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -585,11 +585,11 @@
     <row r="6" ht="14.7" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.58</v>
+        <v>4.75</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -599,11 +599,11 @@
     <row r="7" ht="14.7" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -613,23 +613,25 @@
     <row r="8" ht="14.7" customHeight="1" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>4.01</v>
-      </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A9" s="4" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>4.53</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="10" ht="14.7" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="11" ht="14.7" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="12" ht="14.7" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="13" ht="14.7" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -686,10 +688,10 @@
     </row>
     <row r="14" ht="14.7" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>2.79</v>
+        <v>1.71</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -698,10 +700,10 @@
     </row>
     <row r="15" ht="14.7" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="16" ht="14.7" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -722,10 +724,10 @@
     </row>
     <row r="17" ht="14.7" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -734,10 +736,10 @@
     </row>
     <row r="18" ht="14.7" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>3.29</v>
+        <v>2.27</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="19" ht="14.7" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.41</v>
+        <v>3.29</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -758,10 +760,10 @@
     </row>
     <row r="20" ht="14.7" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -770,10 +772,10 @@
     </row>
     <row r="21" ht="14.7" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>4.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="22" ht="14.7" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -794,10 +796,10 @@
     </row>
     <row r="23" ht="14.7" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -806,10 +808,10 @@
     </row>
     <row r="24" ht="14.7" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>3.44</v>
+        <v>1.73</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -818,10 +820,10 @@
     </row>
     <row r="25" ht="14.7" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>2.23</v>
+        <v>3.44</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -830,10 +832,10 @@
     </row>
     <row r="26" ht="14.7" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="27" ht="14.7" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>0.7799999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="28" ht="14.7" customHeight="1" thickBot="1">
       <c r="A28" s="4" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1.26</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="29" ht="14.7" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>0.48</v>
+        <v>1.26</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="30" ht="14.7" customHeight="1" thickBot="1">
       <c r="A30" s="4" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="31" ht="14.7" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>3.52</v>
+        <v>0.23</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -901,11 +903,11 @@
       </c>
     </row>
     <row r="32" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A32" s="6" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B32" s="7" t="n">
-        <v>5.43</v>
+      <c r="A32" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>3.52</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -913,11 +915,11 @@
       </c>
     </row>
     <row r="33" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A33" s="4" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>3.72</v>
+      <c r="A33" s="6" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>5.43</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="34" ht="14.7" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="35" ht="14.7" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>6.94</v>
+        <v>4.43</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="36" ht="14.7" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>7.62</v>
+        <v>6.94</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="37" ht="14.7" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>8.84</v>
+        <v>7.62</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="38" ht="14.7" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>9.6</v>
+        <v>8.84</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="39" ht="14.7" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>8.200000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="40" ht="14.7" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>8.07</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="41" ht="14.7" customHeight="1" thickBot="1">
       <c r="A41" s="4" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>7.16</v>
+        <v>8.07</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="42" ht="14.7" customHeight="1" thickBot="1">
       <c r="A42" s="4" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>5.53</v>
+        <v>7.16</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="43" ht="14.7" customHeight="1" thickBot="1">
       <c r="A43" s="4" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>14.75</v>
+        <v>5.53</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="44" ht="14.7" customHeight="1" thickBot="1">
       <c r="A44" s="4" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>11.52</v>
+        <v>14.75</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="45" ht="14.7" customHeight="1" thickBot="1">
       <c r="A45" s="4" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>14.73</v>
+        <v>11.52</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="46" ht="14.7" customHeight="1" thickBot="1">
       <c r="A46" s="4" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>15.72</v>
+        <v>14.73</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="47" ht="14.7" customHeight="1" thickBot="1">
       <c r="A47" s="4" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>13.52</v>
+        <v>15.72</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="48" ht="14.7" customHeight="1" thickBot="1">
       <c r="A48" s="4" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>11.06</v>
+        <v>13.52</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="49" ht="14.7" customHeight="1" thickBot="1">
       <c r="A49" s="4" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>12.56</v>
+        <v>11.06</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1118,10 +1120,10 @@
     </row>
     <row r="50" ht="14.7" customHeight="1" thickBot="1">
       <c r="A50" s="4" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>11.7</v>
+        <v>12.56</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1130,10 +1132,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>16.13</v>
+        <v>11.7</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1142,10 +1144,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>23.35</v>
+        <v>16.13</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1154,10 +1156,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>46.98999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1166,10 +1168,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>29.13</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1178,10 +1180,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>9.99</v>
+        <v>29.13</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1190,10 +1192,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>12.53</v>
+        <v>9.99</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1201,14 +1203,26 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B57" s="7" t="n">
-        <v>6.529999999999999</v>
+      <c r="A57" s="4" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>12.53</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="C58">
+        <f>(B58/B70-1)*100</f>
         <v/>
       </c>
     </row>
